--- a/Data.xlsx
+++ b/Data.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">SSN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+  <si>
+    <t xml:space="preserve">Residue</t>
   </si>
   <si>
     <t xml:space="preserve">CA</t>
@@ -43,58 +43,271 @@
     <t xml:space="preserve">TC3</t>
   </si>
   <si>
-    <t xml:space="preserve">AAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAL</t>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V137</t>
   </si>
 </sst>
 </file>
@@ -316,18 +529,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H102" activeCellId="0" sqref="H102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="9" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="7" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,13 +563,10 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>52.2</v>
@@ -378,13 +586,10 @@
       <c r="G2" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="H2" s="4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>52.38</v>
@@ -404,13 +609,10 @@
       <c r="G3" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>15</v>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>52.28</v>
@@ -429,9 +631,6 @@
       </c>
       <c r="G4" s="0" t="n">
         <v>1.7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,11 +655,10 @@
       <c r="G5" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>45</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>52.72</v>
@@ -480,13 +678,10 @@
       <c r="G6" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>125</v>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>52.66</v>
@@ -506,13 +701,10 @@
       <c r="G7" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>126</v>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>52.46</v>
@@ -532,13 +724,10 @@
       <c r="G8" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>112</v>
+      <c r="A9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>52.53</v>
@@ -558,13 +747,10 @@
       <c r="G9" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>88</v>
+      <c r="A10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>52.31</v>
@@ -584,13 +770,10 @@
       <c r="G10" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>82</v>
+      <c r="A11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>52.66</v>
@@ -609,9 +792,6 @@
       </c>
       <c r="G11" s="3" t="n">
         <v>1.7</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,11 +816,10 @@
       <c r="G12" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="H12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>79</v>
+      <c r="A13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>52.6</v>
@@ -660,13 +839,10 @@
       <c r="G13" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>46</v>
+      <c r="A14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>52.31</v>
@@ -686,13 +862,10 @@
       <c r="G14" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>56</v>
+      <c r="A15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>52.17</v>
@@ -712,13 +885,10 @@
       <c r="G15" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>83</v>
+      <c r="A16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>52.5</v>
@@ -737,9 +907,6 @@
       </c>
       <c r="G16" s="0" t="n">
         <v>1.7</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,11 +931,10 @@
       <c r="G17" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="H17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>47</v>
+      <c r="A18" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>52.98</v>
@@ -788,13 +954,10 @@
       <c r="G18" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>64</v>
+      <c r="A19" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>54.32</v>
@@ -813,9 +976,6 @@
       </c>
       <c r="G19" s="3" t="n">
         <v>3.7</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,11 +1000,10 @@
       <c r="G20" s="3" t="n">
         <v>3.7</v>
       </c>
-      <c r="H20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>31</v>
+      <c r="A21" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>54.08</v>
@@ -864,13 +1023,10 @@
       <c r="G21" s="3" t="n">
         <v>3.7</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>121</v>
+      <c r="A22" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>55.66</v>
@@ -889,9 +1045,6 @@
       </c>
       <c r="G22" s="3" t="n">
         <v>4.7</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,11 +1069,10 @@
       <c r="G23" s="3" t="n">
         <v>4.7</v>
       </c>
-      <c r="H23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>114</v>
+      <c r="A24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>56.03</v>
@@ -940,13 +1092,10 @@
       <c r="G24" s="3" t="n">
         <v>4.7</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
-        <v>21</v>
+      <c r="A25" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>55.33</v>
@@ -966,13 +1115,10 @@
       <c r="G25" s="3" t="n">
         <v>4.7</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
-        <v>77</v>
+      <c r="A26" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>56.7</v>
@@ -992,13 +1138,10 @@
       <c r="G26" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <v>66</v>
+      <c r="A27" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>56.72</v>
@@ -1017,9 +1160,6 @@
       </c>
       <c r="G27" s="3" t="n">
         <v>5.7</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,11 +1184,10 @@
       <c r="G28" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>75</v>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>56.65</v>
@@ -1068,13 +1207,10 @@
       <c r="G29" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
-        <v>132</v>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>56.68</v>
@@ -1094,13 +1230,10 @@
       <c r="G30" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
-        <v>138</v>
+      <c r="A31" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>56.52</v>
@@ -1119,9 +1252,6 @@
       </c>
       <c r="G31" s="3" t="n">
         <v>5.7</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,11 +1276,10 @@
       <c r="G32" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
-        <v>118</v>
+      <c r="A33" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>56.73</v>
@@ -1170,13 +1299,10 @@
       <c r="G33" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
-        <v>92</v>
+      <c r="A34" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>56.33</v>
@@ -1196,13 +1322,10 @@
       <c r="G34" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
-        <v>65</v>
+      <c r="A35" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>56.42</v>
@@ -1222,13 +1345,10 @@
       <c r="G35" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
-        <v>73</v>
+      <c r="A36" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>56.53</v>
@@ -1248,13 +1368,10 @@
       <c r="G36" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
-        <v>116</v>
+      <c r="A37" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>45.24</v>
@@ -1268,13 +1385,10 @@
       <c r="G37" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
-        <v>28</v>
+      <c r="A38" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>45.07</v>
@@ -1288,13 +1402,10 @@
       <c r="G38" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
-        <v>30</v>
+      <c r="A39" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>45.13</v>
@@ -1308,13 +1419,10 @@
       <c r="G39" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
-        <v>34</v>
+      <c r="A40" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>44.92</v>
@@ -1327,9 +1435,6 @@
       </c>
       <c r="G40" s="3" t="n">
         <v>6.7</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,11 +1453,10 @@
       <c r="G41" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
-        <v>78</v>
+      <c r="A42" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>45.2</v>
@@ -1366,13 +1470,10 @@
       <c r="G42" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
-        <v>74</v>
+      <c r="A43" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>45.23</v>
@@ -1386,13 +1487,10 @@
       <c r="G43" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
-        <v>94</v>
+      <c r="A44" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>45.23</v>
@@ -1406,13 +1504,10 @@
       <c r="G44" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
-        <v>95</v>
+      <c r="A45" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>44.88</v>
@@ -1426,13 +1521,10 @@
       <c r="G45" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
-        <v>96</v>
+      <c r="A46" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>45.19</v>
@@ -1446,13 +1538,10 @@
       <c r="G46" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
-        <v>97</v>
+      <c r="A47" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>45.16</v>
@@ -1465,9 +1554,6 @@
       </c>
       <c r="G47" s="3" t="n">
         <v>6.7</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,11 +1572,10 @@
       <c r="G48" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
-        <v>106</v>
+      <c r="A49" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>45.22</v>
@@ -1504,13 +1589,10 @@
       <c r="G49" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
-        <v>131</v>
+      <c r="A50" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>45.06</v>
@@ -1524,13 +1606,10 @@
       <c r="G50" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
-        <v>136</v>
+      <c r="A51" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>45.18</v>
@@ -1544,13 +1623,10 @@
       <c r="G51" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
-        <v>13</v>
+      <c r="A52" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>55.6</v>
@@ -1570,13 +1646,10 @@
       <c r="G52" s="3" t="n">
         <v>7.7</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
-        <v>55</v>
+      <c r="A53" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>60.8</v>
@@ -1596,13 +1669,10 @@
       <c r="G53" s="3" t="n">
         <v>8.7</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
-        <v>32</v>
+      <c r="A54" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>61.2</v>
@@ -1622,13 +1692,10 @@
       <c r="G54" s="3" t="n">
         <v>8.7</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
-        <v>5</v>
+      <c r="A55" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>55.27</v>
@@ -1648,13 +1715,10 @@
       <c r="G55" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
-        <v>127</v>
+      <c r="A56" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>54.87</v>
@@ -1673,9 +1737,6 @@
       </c>
       <c r="G56" s="5" t="n">
         <v>9.7</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,11 +1761,10 @@
       <c r="G57" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="H57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
-        <v>43</v>
+      <c r="A58" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>55.05</v>
@@ -1724,13 +1784,10 @@
       <c r="G58" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
-        <v>104</v>
+      <c r="A59" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>56.57</v>
@@ -1750,13 +1807,10 @@
       <c r="G59" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
-        <v>25</v>
+      <c r="A60" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>56.23</v>
@@ -1776,13 +1830,10 @@
       <c r="G60" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
-        <v>119</v>
+      <c r="A61" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>56.42</v>
@@ -1802,13 +1853,10 @@
       <c r="G61" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
-        <v>44</v>
+      <c r="A62" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>56.1</v>
@@ -1827,9 +1875,6 @@
       </c>
       <c r="G62" s="3" t="n">
         <v>10.7</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,11 +1899,10 @@
       <c r="G63" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
-        <v>8</v>
+      <c r="A64" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>56.25</v>
@@ -1878,13 +1922,10 @@
       <c r="G64" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
-        <v>111</v>
+      <c r="A65" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>56.33</v>
@@ -1904,13 +1945,10 @@
       <c r="G65" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
-        <v>37</v>
+      <c r="A66" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>56.5</v>
@@ -1930,13 +1968,10 @@
       <c r="G66" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
-        <v>33</v>
+      <c r="A67" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>56.31</v>
@@ -1956,13 +1991,10 @@
       <c r="G67" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
-        <v>35</v>
+      <c r="A68" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>56.5</v>
@@ -1982,13 +2014,10 @@
       <c r="G68" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
-        <v>17</v>
+      <c r="A69" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>55.23</v>
@@ -2008,13 +2037,10 @@
       <c r="G69" s="3" t="n">
         <v>11.7</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
-        <v>57</v>
+      <c r="A70" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>57.64</v>
@@ -2034,13 +2060,10 @@
       <c r="G70" s="3" t="n">
         <v>12.7</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
-        <v>12</v>
+      <c r="A71" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>57.8</v>
@@ -2060,13 +2083,10 @@
       <c r="G71" s="3" t="n">
         <v>12.7</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="72" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="n">
-        <v>310</v>
+      <c r="A72" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B72" s="7" t="n">
         <v>62.73</v>
@@ -2086,16 +2106,14 @@
       <c r="G72" s="7" t="n">
         <v>13.7</v>
       </c>
-      <c r="H72" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="AMG72" s="0"/>
       <c r="AMH72" s="0"/>
       <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
     </row>
     <row r="73" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="n">
-        <v>311</v>
+      <c r="A73" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B73" s="7" t="n">
         <v>62.95</v>
@@ -2115,16 +2133,14 @@
       <c r="G73" s="7" t="n">
         <v>13.7</v>
       </c>
-      <c r="H73" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="AMG73" s="0"/>
       <c r="AMH73" s="0"/>
       <c r="AMI73" s="0"/>
       <c r="AMJ73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
-        <v>103</v>
+      <c r="A74" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B74" s="9" t="n">
         <v>58.094</v>
@@ -2144,13 +2160,10 @@
       <c r="G74" s="3" t="n">
         <v>14.7</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
-        <v>50</v>
+      <c r="A75" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>58.23</v>
@@ -2170,13 +2183,10 @@
       <c r="G75" s="3" t="n">
         <v>14.7</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
-        <v>40</v>
+      <c r="A76" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>58.22</v>
@@ -2196,13 +2206,10 @@
       <c r="G76" s="3" t="n">
         <v>14.7</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
-        <v>81</v>
+      <c r="A77" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>61.69</v>
@@ -2222,13 +2229,10 @@
       <c r="G77" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
-        <v>100</v>
+      <c r="A78" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>61.75</v>
@@ -2247,9 +2251,6 @@
       </c>
       <c r="G78" s="3" t="n">
         <v>15.7</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,11 +2275,10 @@
       <c r="G79" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="H79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
-        <v>76</v>
+      <c r="A80" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>61.85</v>
@@ -2298,13 +2298,10 @@
       <c r="G80" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
-        <v>123</v>
+      <c r="A81" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>61.62</v>
@@ -2324,13 +2321,10 @@
       <c r="G81" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
-        <v>107</v>
+      <c r="A82" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>61.74</v>
@@ -2350,13 +2344,10 @@
       <c r="G82" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
-        <v>109</v>
+      <c r="A83" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>61.74</v>
@@ -2376,13 +2367,10 @@
       <c r="G83" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
-        <v>99</v>
+      <c r="A84" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>61.97</v>
@@ -2402,13 +2390,10 @@
       <c r="G84" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
-        <v>93</v>
+      <c r="A85" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>62.11</v>
@@ -2428,13 +2413,10 @@
       <c r="G85" s="3" t="n">
         <v>15.7</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
-        <v>113</v>
+      <c r="A86" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>57.69</v>
@@ -2454,13 +2436,10 @@
       <c r="G86" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
-        <v>24</v>
+      <c r="A87" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>57.42</v>
@@ -2480,13 +2459,10 @@
       <c r="G87" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
-        <v>53</v>
+      <c r="A88" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>57.96</v>
@@ -2506,13 +2482,10 @@
       <c r="G88" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
-        <v>52</v>
+      <c r="A89" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>62.12</v>
@@ -2532,13 +2505,10 @@
       <c r="G89" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
-        <v>4</v>
+      <c r="A90" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>62.07</v>
@@ -2558,13 +2528,10 @@
       <c r="G90" s="0" t="n">
         <v>17.7</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
-        <v>60</v>
+      <c r="A91" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>62.17</v>
@@ -2584,13 +2551,10 @@
       <c r="G91" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
-        <v>41</v>
+      <c r="A92" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>62.39</v>
@@ -2610,13 +2574,10 @@
       <c r="G92" s="0" t="n">
         <v>17.7</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
-        <v>122</v>
+      <c r="A93" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>62.25</v>
@@ -2636,13 +2597,10 @@
       <c r="G93" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
-        <v>16</v>
+      <c r="A94" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>62.463057</v>
@@ -2662,13 +2620,10 @@
       <c r="G94" s="0" t="n">
         <v>17.7</v>
       </c>
-      <c r="H94" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
-        <v>48</v>
+      <c r="A95" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>62.23</v>
@@ -2687,9 +2642,6 @@
       </c>
       <c r="G95" s="3" t="n">
         <v>17.7</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,11 +2666,10 @@
       <c r="G96" s="0" t="n">
         <v>17.7</v>
       </c>
-      <c r="H96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
-        <v>61</v>
+      <c r="A97" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>62.14</v>
@@ -2738,13 +2689,10 @@
       <c r="G97" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
-        <v>6</v>
+      <c r="A98" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>62.25</v>
@@ -2764,13 +2712,10 @@
       <c r="G98" s="0" t="n">
         <v>17.7</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
-        <v>27</v>
+      <c r="A99" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>62.51</v>
@@ -2790,13 +2735,10 @@
       <c r="G99" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
-        <v>84</v>
+      <c r="A100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>62.27</v>
@@ -2816,13 +2758,10 @@
       <c r="G100" s="0" t="n">
         <v>17.7</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
-        <v>124</v>
+      <c r="A101" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>62.07</v>
@@ -2841,9 +2780,6 @@
       </c>
       <c r="G101" s="3" t="n">
         <v>17.7</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,11 +2804,10 @@
       <c r="G102" s="0" t="n">
         <v>17.7</v>
       </c>
-      <c r="H102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
-        <v>23</v>
+      <c r="A103" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>62.06</v>
@@ -2892,13 +2827,10 @@
       <c r="G103" s="3" t="n">
         <v>17.7</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
-        <v>110</v>
+      <c r="A104" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>61.79</v>
@@ -2918,13 +2850,10 @@
       <c r="G104" s="0" t="n">
         <v>17.7</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
-        <v>137</v>
+      <c r="A105" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>61.87</v>
@@ -2943,9 +2872,6 @@
       </c>
       <c r="G105" s="3" t="n">
         <v>17.7</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
